--- a/crm/data/archival/DocumentalRetention/data/DocumentalRetention.xlsx
+++ b/crm/data/archival/DocumentalRetention/data/DocumentalRetention.xlsx
@@ -24,24 +24,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>2 AÑOS</t>
-  </si>
-  <si>
-    <t>1 AÑO</t>
-  </si>
-  <si>
-    <t>5 AÑOS</t>
-  </si>
-  <si>
-    <t>10 AÑOS</t>
-  </si>
-  <si>
-    <t>AÑO LECTIVO</t>
-  </si>
-  <si>
-    <t>CONSERVACIÓN TOTAL</t>
-  </si>
-  <si>
     <t>PERMANENCIA DEL ESTUDIANTE</t>
   </si>
   <si>
@@ -63,43 +45,61 @@
     <t>VIGENCIA DEL CONVENIO</t>
   </si>
   <si>
-    <t>AÑO ACTUAL</t>
-  </si>
-  <si>
     <t>PERMANENCIA DEL ALUMNO</t>
   </si>
   <si>
     <t>VIGENCIA DEL ACTA</t>
   </si>
   <si>
-    <t>VIGENCIA DE LA CLÁUSULA</t>
-  </si>
-  <si>
     <t>VIGENCIA DEL LISTADO</t>
   </si>
   <si>
     <t>PERMANENCIA DEL EMPLEADO</t>
   </si>
   <si>
-    <t>VIDA ÚTIL DEL EQUIPO</t>
-  </si>
-  <si>
     <t>N.A</t>
   </si>
   <si>
     <t>INDEFINIDO</t>
   </si>
   <si>
-    <t>3 AÑOS</t>
-  </si>
-  <si>
-    <t>100 AÑOS</t>
+    <t>VIDA UTIL DEL EQUIPO</t>
+  </si>
+  <si>
+    <t>VIGENCIA DE LA CLAUSULA</t>
+  </si>
+  <si>
+    <t>CONSERVACION TOTAL</t>
+  </si>
+  <si>
+    <t>ANO ACTUAL</t>
+  </si>
+  <si>
+    <t>ANO LECTIVO</t>
+  </si>
+  <si>
+    <t>1 ANO</t>
+  </si>
+  <si>
+    <t>2 ANOS</t>
+  </si>
+  <si>
+    <t>3 ANOS</t>
+  </si>
+  <si>
+    <t>5 ANOS</t>
+  </si>
+  <si>
+    <t>10 ANOS</t>
+  </si>
+  <si>
+    <t>100 ANOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,7 +609,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -912,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -926,42 +928,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -971,77 +973,77 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
